--- a/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77A809F-D667-434B-860A-C5B6DAE1EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCC42A3-F1CB-4F5B-9411-FF88CDBC0B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C0DDE88-BCE7-4BF3-A569-93721DAE0C2D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28F9EAD8-4B8A-4FB7-A65F-F297CCFBC965}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
-  <si>
-    <t>dukeCdic en 2007 (Tasa respuesta: 99,94%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,25 @@
     <t>23,37%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>23,72%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +104,25 @@
     <t>76,63%</t>
   </si>
   <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>74,31%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>76,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,814 +134,796 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>9,2%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2015 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23931CD1-0D67-4DE8-9DAC-247D1241419F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112853DB-2E11-43ED-8C83-AB70A2DB88EB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,13 +1495,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>799</v>
@@ -1534,13 +1510,13 @@
         <v>790591</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>943</v>
@@ -1549,13 +1525,13 @@
         <v>953227</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>1742</v>
@@ -1564,13 +1540,13 @@
         <v>1743818</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,13 +1561,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1600,13 +1576,13 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
@@ -1615,18 +1591,18 @@
         <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1638,13 +1614,13 @@
         <v>183232</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>195</v>
@@ -1653,13 +1629,13 @@
         <v>211395</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -1668,19 +1644,19 @@
         <v>394627</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1468</v>
@@ -1689,13 +1665,13 @@
         <v>1510180</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1357</v>
@@ -1704,13 +1680,13 @@
         <v>1374147</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2825</v>
@@ -1719,13 +1695,13 @@
         <v>2884328</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,13 +1716,13 @@
         <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1552</v>
@@ -1755,13 +1731,13 @@
         <v>1585542</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3201</v>
@@ -1770,18 +1746,18 @@
         <v>3278955</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1793,13 +1769,13 @@
         <v>55984</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -1808,13 +1784,13 @@
         <v>53884</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -1823,19 +1799,19 @@
         <v>109868</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>473</v>
@@ -1844,13 +1820,13 @@
         <v>492789</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -1859,13 +1835,13 @@
         <v>422528</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>875</v>
@@ -1874,13 +1850,13 @@
         <v>915317</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,13 +1871,13 @@
         <v>548773</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1910,13 +1886,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>977</v>
@@ -1925,13 +1901,13 @@
         <v>1025185</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1924,13 @@
         <v>480348</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>593</v>
@@ -1963,34 +1939,34 @@
         <v>627165</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1065</v>
       </c>
       <c r="N13" s="7">
-        <v>1107513</v>
+        <v>1107512</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2740</v>
@@ -1999,13 +1975,13 @@
         <v>2793561</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2702</v>
@@ -2014,13 +1990,13 @@
         <v>2749901</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5442</v>
@@ -2029,13 +2005,13 @@
         <v>5543463</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2026,13 @@
         <v>3273909</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3295</v>
@@ -2065,33 +2041,33 @@
         <v>3377066</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6507</v>
       </c>
       <c r="N15" s="7">
-        <v>6650976</v>
+        <v>6650975</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5D67BA-53F2-46AD-A9E2-0675B92BE3FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B583161-818D-495E-9D65-45F737735E19}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2234,13 +2210,13 @@
         <v>231250</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>315</v>
@@ -2249,13 +2225,13 @@
         <v>340342</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>529</v>
@@ -2264,19 +2240,19 @@
         <v>571592</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>681</v>
@@ -2285,28 +2261,28 @@
         <v>730507</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>924</v>
       </c>
       <c r="I5" s="7">
-        <v>988228</v>
+        <v>988227</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1605</v>
@@ -2315,13 +2291,13 @@
         <v>1718734</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,28 +2312,28 @@
         <v>961757</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>1328570</v>
+        <v>1328569</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2134</v>
@@ -2366,18 +2342,18 @@
         <v>2290326</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2389,13 +2365,13 @@
         <v>328307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>326</v>
@@ -2404,13 +2380,13 @@
         <v>358190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>631</v>
@@ -2419,19 +2395,19 @@
         <v>686497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1541</v>
@@ -2440,13 +2416,13 @@
         <v>1624528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1303</v>
@@ -2455,13 +2431,13 @@
         <v>1392872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>2844</v>
@@ -2470,13 +2446,13 @@
         <v>3017400</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2467,13 @@
         <v>1952835</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1629</v>
@@ -2506,13 +2482,13 @@
         <v>1751062</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3475</v>
@@ -2521,18 +2497,18 @@
         <v>3703897</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2544,13 +2520,13 @@
         <v>61292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2559,13 +2535,13 @@
         <v>52559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -2574,19 +2550,19 @@
         <v>113851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>383</v>
@@ -2595,13 +2571,13 @@
         <v>416117</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>363</v>
@@ -2610,28 +2586,28 @@
         <v>401963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>746</v>
       </c>
       <c r="N11" s="7">
-        <v>818080</v>
+        <v>818079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2622,13 @@
         <v>477409</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>408</v>
@@ -2661,28 +2637,28 @@
         <v>454522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>842</v>
       </c>
       <c r="N12" s="7">
-        <v>931931</v>
+        <v>931930</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2675,13 @@
         <v>620849</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>686</v>
@@ -2714,13 +2690,13 @@
         <v>751091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>1256</v>
@@ -2729,19 +2705,19 @@
         <v>1371940</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2605</v>
@@ -2750,28 +2726,28 @@
         <v>2771151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2590</v>
       </c>
       <c r="I14" s="7">
-        <v>2783062</v>
+        <v>2783063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>5195</v>
@@ -2780,13 +2756,13 @@
         <v>5554214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,28 +2777,28 @@
         <v>3392000</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3276</v>
       </c>
       <c r="I15" s="7">
-        <v>3534153</v>
+        <v>3534154</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6451</v>
@@ -2831,18 +2807,18 @@
         <v>6926154</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13C008-182D-4548-A730-0BDDF8B2FD5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A33ED6B-43C5-4FE9-B94F-CFD778938EFA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2961,13 @@
         <v>176626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -3000,13 +2976,13 @@
         <v>265353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>415</v>
@@ -3015,19 +2991,19 @@
         <v>441980</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>579</v>
@@ -3036,13 +3012,13 @@
         <v>575754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>651</v>
@@ -3051,13 +3027,13 @@
         <v>721643</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1230</v>
@@ -3066,13 +3042,13 @@
         <v>1297395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3063,13 @@
         <v>752380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>885</v>
@@ -3102,13 +3078,13 @@
         <v>986996</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1645</v>
@@ -3117,18 +3093,18 @@
         <v>1739375</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3140,13 +3116,13 @@
         <v>335697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -3155,13 +3131,13 @@
         <v>331597</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>617</v>
@@ -3170,19 +3146,19 @@
         <v>667294</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1631</v>
@@ -3191,13 +3167,13 @@
         <v>1727135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1591</v>
@@ -3206,13 +3182,13 @@
         <v>1646117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3222</v>
@@ -3221,13 +3197,13 @@
         <v>3373252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3218,13 @@
         <v>2062832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1898</v>
@@ -3257,13 +3233,13 @@
         <v>1977714</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3839</v>
@@ -3272,18 +3248,18 @@
         <v>4040546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3295,13 +3271,13 @@
         <v>62003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3310,13 +3286,13 @@
         <v>60808</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -3325,19 +3301,19 @@
         <v>122811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>446</v>
@@ -3346,13 +3322,13 @@
         <v>483002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -3361,13 +3337,13 @@
         <v>483721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>912</v>
@@ -3376,13 +3352,13 @@
         <v>966723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3373,13 @@
         <v>545005</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>522</v>
@@ -3412,13 +3388,13 @@
         <v>544529</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1021</v>
@@ -3427,13 +3403,13 @@
         <v>1089534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3426,13 @@
         <v>574326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>597</v>
@@ -3465,13 +3441,13 @@
         <v>657759</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>1141</v>
@@ -3480,19 +3456,19 @@
         <v>1232084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2656</v>
@@ -3501,13 +3477,13 @@
         <v>2785890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>2708</v>
@@ -3516,13 +3492,13 @@
         <v>2851480</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5364</v>
@@ -3531,13 +3507,13 @@
         <v>5637371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3528,13 @@
         <v>3360216</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3305</v>
@@ -3567,13 +3543,13 @@
         <v>3509239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6505</v>
@@ -3582,18 +3558,18 @@
         <v>6869455</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB3686-D5AC-48A4-BF4B-5B7CF100B01C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CC30BB-AF7E-4F3D-A415-B819F13DF223}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3712,13 @@
         <v>143699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>409</v>
@@ -3751,13 +3727,13 @@
         <v>233145</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>599</v>
@@ -3766,19 +3742,19 @@
         <v>376844</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>489</v>
@@ -3787,13 +3763,13 @@
         <v>388686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>985</v>
@@ -3802,13 +3778,13 @@
         <v>584826</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1474</v>
@@ -3817,13 +3793,13 @@
         <v>973512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3814,13 @@
         <v>532385</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1394</v>
@@ -3853,13 +3829,13 @@
         <v>817971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2073</v>
@@ -3868,18 +3844,18 @@
         <v>1350356</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3891,13 +3867,13 @@
         <v>258527</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>391</v>
@@ -3906,13 +3882,13 @@
         <v>267625</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>663</v>
@@ -3921,19 +3897,19 @@
         <v>526152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1708</v>
@@ -3942,13 +3918,13 @@
         <v>1890268</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>2497</v>
@@ -3957,13 +3933,13 @@
         <v>1844847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>4205</v>
@@ -3972,13 +3948,13 @@
         <v>3735115</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3969,13 @@
         <v>2148795</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>2888</v>
@@ -4008,13 +3984,13 @@
         <v>2112472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>4868</v>
@@ -4023,18 +3999,18 @@
         <v>4261267</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4046,13 +4022,13 @@
         <v>53094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -4061,13 +4037,13 @@
         <v>47697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
@@ -4076,19 +4052,19 @@
         <v>100791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>619</v>
@@ -4097,13 +4073,13 @@
         <v>610390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>931</v>
@@ -4112,13 +4088,13 @@
         <v>662247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -4127,13 +4103,13 @@
         <v>1272637</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4124,13 @@
         <v>663484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>997</v>
@@ -4163,13 +4139,13 @@
         <v>709944</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1668</v>
@@ -4178,13 +4154,13 @@
         <v>1373428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4177,13 @@
         <v>455320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>866</v>
@@ -4216,13 +4192,13 @@
         <v>548466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>1380</v>
@@ -4231,19 +4207,19 @@
         <v>1003786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2816</v>
@@ -4252,13 +4228,13 @@
         <v>2889344</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>4413</v>
@@ -4267,13 +4243,13 @@
         <v>3091921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>7229</v>
@@ -4282,13 +4258,13 @@
         <v>5981264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4279,13 @@
         <v>3344664</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>5279</v>
@@ -4318,13 +4294,13 @@
         <v>3640387</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>8609</v>
@@ -4333,18 +4309,18 @@
         <v>6985050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCC42A3-F1CB-4F5B-9411-FF88CDBC0B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE45CB0-4942-424E-9746-51928D114106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28F9EAD8-4B8A-4FB7-A65F-F297CCFBC965}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BEA4433-8BB6-4D95-8A47-3C85BD12969A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,838 +77,844 @@
     <t>23,37%</t>
   </si>
   <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>25,08%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>84,93%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
   </si>
   <si>
     <t>83,88%</t>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112853DB-2E11-43ED-8C83-AB70A2DB88EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE476A-50D4-45B2-9E3A-6F5DE479DD4F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1495,13 +1501,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>799</v>
@@ -1510,13 +1516,13 @@
         <v>790591</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>943</v>
@@ -1525,13 +1531,13 @@
         <v>953227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>1742</v>
@@ -1540,13 +1546,13 @@
         <v>1743818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,13 +1567,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1576,13 +1582,13 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
@@ -1591,18 +1597,18 @@
         <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1614,13 +1620,13 @@
         <v>183232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>195</v>
@@ -1629,13 +1635,13 @@
         <v>211395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -1644,34 +1650,34 @@
         <v>394627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1468</v>
       </c>
       <c r="D8" s="7">
-        <v>1510180</v>
+        <v>1510181</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1357</v>
@@ -1680,13 +1686,13 @@
         <v>1374147</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2825</v>
@@ -1695,13 +1701,13 @@
         <v>2884328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,16 +1719,16 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1552</v>
@@ -1731,13 +1737,13 @@
         <v>1585542</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3201</v>
@@ -1746,18 +1752,18 @@
         <v>3278955</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1775,13 @@
         <v>55984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -1784,13 +1790,13 @@
         <v>53884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -1799,19 +1805,19 @@
         <v>109868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>473</v>
@@ -1820,13 +1826,13 @@
         <v>492789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -1835,13 +1841,13 @@
         <v>422528</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>875</v>
@@ -1850,13 +1856,13 @@
         <v>915317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1877,13 @@
         <v>548773</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1886,13 +1892,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>977</v>
@@ -1901,13 +1907,13 @@
         <v>1025185</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1930,13 @@
         <v>480348</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>593</v>
@@ -1939,34 +1945,34 @@
         <v>627165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1065</v>
       </c>
       <c r="N13" s="7">
-        <v>1107512</v>
+        <v>1107513</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>2740</v>
@@ -1975,13 +1981,13 @@
         <v>2793561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2702</v>
@@ -1990,13 +1996,13 @@
         <v>2749901</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5442</v>
@@ -2005,13 +2011,13 @@
         <v>5543463</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2032,13 @@
         <v>3273909</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3295</v>
@@ -2041,33 +2047,33 @@
         <v>3377066</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6507</v>
       </c>
       <c r="N15" s="7">
-        <v>6650975</v>
+        <v>6650976</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B583161-818D-495E-9D65-45F737735E19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410EDC65-8477-4D4C-86E0-B8062C2D2CDA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2210,13 +2216,13 @@
         <v>231250</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>315</v>
@@ -2225,13 +2231,13 @@
         <v>340342</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>529</v>
@@ -2240,19 +2246,19 @@
         <v>571592</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>681</v>
@@ -2261,13 +2267,13 @@
         <v>730507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>924</v>
@@ -2276,13 +2282,13 @@
         <v>988227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1605</v>
@@ -2291,13 +2297,13 @@
         <v>1718734</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2318,13 @@
         <v>961757</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1239</v>
@@ -2327,13 +2333,13 @@
         <v>1328569</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2134</v>
@@ -2342,18 +2348,18 @@
         <v>2290326</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2365,13 +2371,13 @@
         <v>328307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>326</v>
@@ -2380,13 +2386,13 @@
         <v>358190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>631</v>
@@ -2395,19 +2401,19 @@
         <v>686497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1541</v>
@@ -2416,13 +2422,13 @@
         <v>1624528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1303</v>
@@ -2431,13 +2437,13 @@
         <v>1392872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2844</v>
@@ -2446,13 +2452,13 @@
         <v>3017400</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2473,13 @@
         <v>1952835</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1629</v>
@@ -2482,13 +2488,13 @@
         <v>1751062</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3475</v>
@@ -2497,18 +2503,18 @@
         <v>3703897</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2520,13 +2526,13 @@
         <v>61292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2535,13 +2541,13 @@
         <v>52559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -2550,19 +2556,19 @@
         <v>113851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>383</v>
@@ -2571,13 +2577,13 @@
         <v>416117</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>363</v>
@@ -2586,13 +2592,13 @@
         <v>401963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>746</v>
@@ -2601,13 +2607,13 @@
         <v>818079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2628,13 @@
         <v>477409</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>408</v>
@@ -2637,13 +2643,13 @@
         <v>454522</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>842</v>
@@ -2652,13 +2658,13 @@
         <v>931930</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2681,13 @@
         <v>620849</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>686</v>
@@ -2690,13 +2696,13 @@
         <v>751091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1256</v>
@@ -2705,19 +2711,19 @@
         <v>1371940</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>2605</v>
@@ -2726,13 +2732,13 @@
         <v>2771151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2590</v>
@@ -2741,28 +2747,28 @@
         <v>2783063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5195</v>
       </c>
       <c r="N14" s="7">
-        <v>5554214</v>
+        <v>5554213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2783,13 @@
         <v>3392000</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3276</v>
@@ -2792,33 +2798,33 @@
         <v>3534154</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6451</v>
       </c>
       <c r="N15" s="7">
-        <v>6926154</v>
+        <v>6926153</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A33ED6B-43C5-4FE9-B94F-CFD778938EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5EF840-5FBD-4C32-9373-47DB461518AA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2961,13 +2967,13 @@
         <v>176626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>234</v>
@@ -2976,13 +2982,13 @@
         <v>265353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>415</v>
@@ -2991,19 +2997,19 @@
         <v>441980</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>579</v>
@@ -3012,13 +3018,13 @@
         <v>575754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>651</v>
@@ -3027,13 +3033,13 @@
         <v>721643</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>1230</v>
@@ -3042,13 +3048,13 @@
         <v>1297395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3069,13 @@
         <v>752380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>885</v>
@@ -3078,13 +3084,13 @@
         <v>986996</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>1645</v>
@@ -3093,18 +3099,18 @@
         <v>1739375</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3116,13 +3122,13 @@
         <v>335697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -3131,13 +3137,13 @@
         <v>331597</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>617</v>
@@ -3146,19 +3152,19 @@
         <v>667294</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1631</v>
@@ -3167,13 +3173,13 @@
         <v>1727135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1591</v>
@@ -3182,13 +3188,13 @@
         <v>1646117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3222</v>
@@ -3197,13 +3203,13 @@
         <v>3373252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3224,13 @@
         <v>2062832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1898</v>
@@ -3233,13 +3239,13 @@
         <v>1977714</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3839</v>
@@ -3248,18 +3254,18 @@
         <v>4040546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3271,13 +3277,13 @@
         <v>62003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3286,13 +3292,13 @@
         <v>60808</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -3301,19 +3307,19 @@
         <v>122811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>446</v>
@@ -3322,13 +3328,13 @@
         <v>483002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -3337,13 +3343,13 @@
         <v>483721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>912</v>
@@ -3352,13 +3358,13 @@
         <v>966723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3379,13 @@
         <v>545005</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>522</v>
@@ -3388,13 +3394,13 @@
         <v>544529</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1021</v>
@@ -3403,13 +3409,13 @@
         <v>1089534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3432,13 @@
         <v>574326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>597</v>
@@ -3441,13 +3447,13 @@
         <v>657759</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>1141</v>
@@ -3456,19 +3462,19 @@
         <v>1232084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>2656</v>
@@ -3477,13 +3483,13 @@
         <v>2785890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2708</v>
@@ -3492,13 +3498,13 @@
         <v>2851480</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>5364</v>
@@ -3507,13 +3513,13 @@
         <v>5637371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3534,13 @@
         <v>3360216</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3305</v>
@@ -3543,13 +3549,13 @@
         <v>3509239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6505</v>
@@ -3558,18 +3564,18 @@
         <v>6869455</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CC30BB-AF7E-4F3D-A415-B819F13DF223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C624EE9-0FCB-4A4C-A8C6-F113DA4E20FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3718,13 @@
         <v>143699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>409</v>
@@ -3727,13 +3733,13 @@
         <v>233145</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>599</v>
@@ -3742,19 +3748,19 @@
         <v>376844</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>489</v>
@@ -3763,13 +3769,13 @@
         <v>388686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>985</v>
@@ -3778,13 +3784,13 @@
         <v>584826</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1474</v>
@@ -3793,13 +3799,13 @@
         <v>973512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3820,13 @@
         <v>532385</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1394</v>
@@ -3829,13 +3835,13 @@
         <v>817971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2073</v>
@@ -3844,18 +3850,18 @@
         <v>1350356</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3867,13 +3873,13 @@
         <v>258527</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>391</v>
@@ -3882,13 +3888,13 @@
         <v>267625</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>663</v>
@@ -3897,19 +3903,19 @@
         <v>526152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1708</v>
@@ -3918,13 +3924,13 @@
         <v>1890268</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2497</v>
@@ -3933,13 +3939,13 @@
         <v>1844847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4205</v>
@@ -3948,13 +3954,13 @@
         <v>3735115</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3975,13 @@
         <v>2148795</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>2888</v>
@@ -3984,13 +3990,13 @@
         <v>2112472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>4868</v>
@@ -3999,18 +4005,18 @@
         <v>4261267</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4064,7 +4070,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>619</v>
@@ -4124,13 +4130,13 @@
         <v>663484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>997</v>
@@ -4139,13 +4145,13 @@
         <v>709944</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1668</v>
@@ -4154,13 +4160,13 @@
         <v>1373428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4198,13 @@
         <v>548466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1380</v>
@@ -4207,19 +4213,19 @@
         <v>1003786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>2816</v>
@@ -4228,13 +4234,13 @@
         <v>2889344</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4413</v>
@@ -4243,13 +4249,13 @@
         <v>3091921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>7229</v>
@@ -4258,13 +4264,13 @@
         <v>5981264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4285,13 @@
         <v>3344664</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>5279</v>
@@ -4294,13 +4300,13 @@
         <v>3640387</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>8609</v>
@@ -4309,18 +4315,18 @@
         <v>6985050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE45CB0-4942-424E-9746-51928D114106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3477A3-AC19-4170-A761-22F53E00C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BEA4433-8BB6-4D95-8A47-3C85BD12969A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C296B11-52B7-4480-B0FF-D71FCC2D9A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -74,61 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,169 +137,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -308,628 +308,652 @@
     <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>20,89%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>20,4%</t>
   </si>
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE476A-50D4-45B2-9E3A-6F5DE479DD4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ABAA69-17B9-453F-A8B4-8AF2189DD2F6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>239</v>
+        <v>765</v>
       </c>
       <c r="D4" s="7">
-        <v>241132</v>
+        <v>764414</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1474,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>348</v>
+        <v>997</v>
       </c>
       <c r="I4" s="7">
-        <v>361886</v>
+        <v>1024877</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1489,10 +1513,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>587</v>
+        <v>1762</v>
       </c>
       <c r="N4" s="7">
-        <v>603018</v>
+        <v>1789291</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1510,10 +1534,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>799</v>
+        <v>273</v>
       </c>
       <c r="D5" s="7">
-        <v>790591</v>
+        <v>267309</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1525,10 +1549,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>943</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>953227</v>
+        <v>290236</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1540,10 +1564,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1742</v>
+        <v>567</v>
       </c>
       <c r="N5" s="7">
-        <v>1743818</v>
+        <v>557545</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1614,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>1075</v>
       </c>
       <c r="D7" s="7">
-        <v>183232</v>
+        <v>1094678</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1629,10 +1653,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>195</v>
+        <v>1031</v>
       </c>
       <c r="I7" s="7">
-        <v>211395</v>
+        <v>1065588</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1644,10 +1668,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>376</v>
+        <v>2106</v>
       </c>
       <c r="N7" s="7">
-        <v>394627</v>
+        <v>2160266</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1665,10 +1689,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1468</v>
+        <v>574</v>
       </c>
       <c r="D8" s="7">
-        <v>1510181</v>
+        <v>598734</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1680,10 +1704,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1357</v>
+        <v>521</v>
       </c>
       <c r="I8" s="7">
-        <v>1374147</v>
+        <v>519954</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1695,10 +1719,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>2825</v>
+        <v>1095</v>
       </c>
       <c r="N8" s="7">
-        <v>2884328</v>
+        <v>1118689</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1719,7 +1743,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1769,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>350</v>
       </c>
       <c r="D10" s="7">
-        <v>55984</v>
+        <v>366774</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1784,10 +1808,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="I10" s="7">
-        <v>53884</v>
+        <v>298247</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1799,10 +1823,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>631</v>
       </c>
       <c r="N10" s="7">
-        <v>109868</v>
+        <v>665021</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1820,10 +1844,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>473</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>492789</v>
+        <v>181999</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1835,10 +1859,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>402</v>
+        <v>171</v>
       </c>
       <c r="I11" s="7">
-        <v>422528</v>
+        <v>178165</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1850,10 +1874,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>875</v>
+        <v>346</v>
       </c>
       <c r="N11" s="7">
-        <v>915317</v>
+        <v>360164</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1924,10 +1948,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>472</v>
+        <v>2190</v>
       </c>
       <c r="D13" s="7">
-        <v>480348</v>
+        <v>2225867</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1939,10 +1963,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>593</v>
+        <v>2309</v>
       </c>
       <c r="I13" s="7">
-        <v>627165</v>
+        <v>2388711</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1954,10 +1978,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1065</v>
+        <v>4499</v>
       </c>
       <c r="N13" s="7">
-        <v>1107513</v>
+        <v>4614578</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1975,10 +1999,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2740</v>
+        <v>1022</v>
       </c>
       <c r="D14" s="7">
-        <v>2793561</v>
+        <v>1048042</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1990,10 +2014,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>2702</v>
+        <v>986</v>
       </c>
       <c r="I14" s="7">
-        <v>2749901</v>
+        <v>988355</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2005,10 +2029,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>5442</v>
+        <v>2008</v>
       </c>
       <c r="N14" s="7">
-        <v>5543463</v>
+        <v>2036398</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2092,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410EDC65-8477-4D4C-86E0-B8062C2D2CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E0354A-1430-4F73-90C5-1B74A6774C60}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2210,10 +2234,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>214</v>
+        <v>625</v>
       </c>
       <c r="D4" s="7">
-        <v>231250</v>
+        <v>678227</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2225,10 +2249,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>315</v>
+        <v>940</v>
       </c>
       <c r="I4" s="7">
-        <v>340342</v>
+        <v>1008218</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2240,10 +2264,10 @@
         <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>529</v>
+        <v>1565</v>
       </c>
       <c r="N4" s="7">
-        <v>571592</v>
+        <v>1686444</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2261,10 +2285,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>681</v>
+        <v>270</v>
       </c>
       <c r="D5" s="7">
-        <v>730507</v>
+        <v>283530</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2276,10 +2300,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>924</v>
+        <v>299</v>
       </c>
       <c r="I5" s="7">
-        <v>988227</v>
+        <v>320352</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2291,10 +2315,10 @@
         <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1605</v>
+        <v>569</v>
       </c>
       <c r="N5" s="7">
-        <v>1718734</v>
+        <v>603882</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2330,7 +2354,7 @@
         <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>1328569</v>
+        <v>1328570</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2365,10 +2389,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>305</v>
+        <v>1192</v>
       </c>
       <c r="D7" s="7">
-        <v>328307</v>
+        <v>1268722</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2380,10 +2404,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>1189</v>
       </c>
       <c r="I7" s="7">
-        <v>358190</v>
+        <v>1285616</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2395,10 +2419,10 @@
         <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>631</v>
+        <v>2381</v>
       </c>
       <c r="N7" s="7">
-        <v>686497</v>
+        <v>2554339</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2416,10 +2440,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1541</v>
+        <v>654</v>
       </c>
       <c r="D8" s="7">
-        <v>1624528</v>
+        <v>684113</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2431,10 +2455,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>1303</v>
+        <v>440</v>
       </c>
       <c r="I8" s="7">
-        <v>1392872</v>
+        <v>465446</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2446,10 +2470,10 @@
         <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>2844</v>
+        <v>1094</v>
       </c>
       <c r="N8" s="7">
-        <v>3017400</v>
+        <v>1149558</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2520,10 +2544,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="D10" s="7">
-        <v>61292</v>
+        <v>302326</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2535,10 +2559,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="I10" s="7">
-        <v>52559</v>
+        <v>292464</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
@@ -2550,10 +2574,10 @@
         <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>96</v>
+        <v>537</v>
       </c>
       <c r="N10" s="7">
-        <v>113851</v>
+        <v>594790</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>131</v>
@@ -2571,10 +2595,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>383</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7">
-        <v>416117</v>
+        <v>175083</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>134</v>
@@ -2586,10 +2610,10 @@
         <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>363</v>
+        <v>146</v>
       </c>
       <c r="I11" s="7">
-        <v>401963</v>
+        <v>162058</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>137</v>
@@ -2601,10 +2625,10 @@
         <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>746</v>
+        <v>305</v>
       </c>
       <c r="N11" s="7">
-        <v>818079</v>
+        <v>337141</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2655,7 +2679,7 @@
         <v>842</v>
       </c>
       <c r="N12" s="7">
-        <v>931930</v>
+        <v>931931</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2675,10 +2699,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>570</v>
+        <v>2092</v>
       </c>
       <c r="D13" s="7">
-        <v>620849</v>
+        <v>2249274</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
@@ -2690,10 +2714,10 @@
         <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>686</v>
+        <v>2391</v>
       </c>
       <c r="I13" s="7">
-        <v>751091</v>
+        <v>2586297</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>146</v>
@@ -2705,10 +2729,10 @@
         <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>1256</v>
+        <v>4483</v>
       </c>
       <c r="N13" s="7">
-        <v>1371940</v>
+        <v>4835572</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>149</v>
@@ -2726,10 +2750,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2605</v>
+        <v>1083</v>
       </c>
       <c r="D14" s="7">
-        <v>2771151</v>
+        <v>1142726</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>152</v>
@@ -2741,10 +2765,10 @@
         <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>2590</v>
+        <v>885</v>
       </c>
       <c r="I14" s="7">
-        <v>2783063</v>
+        <v>947856</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>155</v>
@@ -2756,10 +2780,10 @@
         <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>5195</v>
+        <v>1968</v>
       </c>
       <c r="N14" s="7">
-        <v>5554213</v>
+        <v>2090582</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>158</v>
@@ -2795,7 +2819,7 @@
         <v>3276</v>
       </c>
       <c r="I15" s="7">
-        <v>3534154</v>
+        <v>3534153</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2810,7 +2834,7 @@
         <v>6451</v>
       </c>
       <c r="N15" s="7">
-        <v>6926153</v>
+        <v>6926154</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5EF840-5FBD-4C32-9373-47DB461518AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C95A456-5DEE-4727-833C-4097BD747FE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,10 +2985,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>181</v>
+        <v>602</v>
       </c>
       <c r="D4" s="7">
-        <v>176626</v>
+        <v>595175</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>162</v>
@@ -2976,34 +3000,34 @@
         <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>234</v>
+        <v>750</v>
       </c>
       <c r="I4" s="7">
-        <v>265353</v>
+        <v>838446</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>415</v>
+        <v>1352</v>
       </c>
       <c r="N4" s="7">
-        <v>441980</v>
+        <v>1433621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,49 +3036,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>579</v>
+        <v>158</v>
       </c>
       <c r="D5" s="7">
-        <v>575754</v>
+        <v>157205</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>651</v>
+        <v>135</v>
       </c>
       <c r="I5" s="7">
-        <v>721643</v>
+        <v>148550</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>1230</v>
+        <v>293</v>
       </c>
       <c r="N5" s="7">
-        <v>1297395</v>
+        <v>305754</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,49 +3140,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>310</v>
+        <v>1560</v>
       </c>
       <c r="D7" s="7">
-        <v>335697</v>
+        <v>1658595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>307</v>
+        <v>1570</v>
       </c>
       <c r="I7" s="7">
-        <v>331597</v>
+        <v>1645758</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>617</v>
+        <v>3130</v>
       </c>
       <c r="N7" s="7">
-        <v>667294</v>
+        <v>3304353</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,49 +3191,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1631</v>
+        <v>381</v>
       </c>
       <c r="D8" s="7">
-        <v>1727135</v>
+        <v>404237</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
-        <v>1591</v>
+        <v>328</v>
       </c>
       <c r="I8" s="7">
-        <v>1646117</v>
+        <v>331956</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
-        <v>3222</v>
+        <v>709</v>
       </c>
       <c r="N8" s="7">
-        <v>3373252</v>
+        <v>736193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,49 +3295,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="D10" s="7">
-        <v>62003</v>
+        <v>402174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="I10" s="7">
-        <v>60808</v>
+        <v>395514</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
-        <v>109</v>
+        <v>743</v>
       </c>
       <c r="N10" s="7">
-        <v>122811</v>
+        <v>797687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,49 +3346,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>446</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7">
-        <v>483002</v>
+        <v>142831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="I11" s="7">
-        <v>483721</v>
+        <v>149015</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
-        <v>912</v>
+        <v>278</v>
       </c>
       <c r="N11" s="7">
-        <v>966723</v>
+        <v>291847</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,49 +3450,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>544</v>
+        <v>2528</v>
       </c>
       <c r="D13" s="7">
-        <v>574326</v>
+        <v>2655943</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
-        <v>597</v>
+        <v>2697</v>
       </c>
       <c r="I13" s="7">
-        <v>657759</v>
+        <v>2879718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
-        <v>1141</v>
+        <v>5225</v>
       </c>
       <c r="N13" s="7">
-        <v>1232084</v>
+        <v>5535661</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,49 +3501,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2656</v>
+        <v>672</v>
       </c>
       <c r="D14" s="7">
-        <v>2785890</v>
+        <v>704273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
-        <v>2708</v>
+        <v>608</v>
       </c>
       <c r="I14" s="7">
-        <v>2851480</v>
+        <v>629521</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
-        <v>5364</v>
+        <v>1280</v>
       </c>
       <c r="N14" s="7">
-        <v>5637371</v>
+        <v>1333794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C624EE9-0FCB-4A4C-A8C6-F113DA4E20FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261D95A-3DBA-4325-B4F6-C206D051054A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,49 +3736,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>190</v>
+        <v>462</v>
       </c>
       <c r="D4" s="7">
-        <v>143699</v>
+        <v>357269</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
-        <v>409</v>
+        <v>992</v>
       </c>
       <c r="I4" s="7">
-        <v>233145</v>
+        <v>577222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
-        <v>599</v>
+        <v>1454</v>
       </c>
       <c r="N4" s="7">
-        <v>376844</v>
+        <v>934491</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,49 +3787,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>489</v>
+        <v>217</v>
       </c>
       <c r="D5" s="7">
-        <v>388686</v>
+        <v>175116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
-        <v>985</v>
+        <v>402</v>
       </c>
       <c r="I5" s="7">
-        <v>584826</v>
+        <v>240749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
-        <v>1474</v>
+        <v>619</v>
       </c>
       <c r="N5" s="7">
-        <v>973512</v>
+        <v>415865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,49 +3891,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>272</v>
+        <v>1301</v>
       </c>
       <c r="D7" s="7">
-        <v>258527</v>
+        <v>1307955</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
-        <v>391</v>
+        <v>1919</v>
       </c>
       <c r="I7" s="7">
-        <v>267625</v>
+        <v>1336829</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
-        <v>663</v>
+        <v>3220</v>
       </c>
       <c r="N7" s="7">
-        <v>526152</v>
+        <v>2644785</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,49 +3942,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1708</v>
+        <v>679</v>
       </c>
       <c r="D8" s="7">
-        <v>1890268</v>
+        <v>840840</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
-        <v>2497</v>
+        <v>969</v>
       </c>
       <c r="I8" s="7">
-        <v>1844847</v>
+        <v>775643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
-        <v>4205</v>
+        <v>1648</v>
       </c>
       <c r="N8" s="7">
-        <v>3735115</v>
+        <v>1616482</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>63</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,49 +4046,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>407</v>
       </c>
       <c r="D10" s="7">
-        <v>53094</v>
+        <v>391670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>583</v>
       </c>
       <c r="I10" s="7">
-        <v>47697</v>
+        <v>389812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
-        <v>118</v>
+        <v>990</v>
       </c>
       <c r="N10" s="7">
-        <v>100791</v>
+        <v>781481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,49 +4097,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>619</v>
+        <v>264</v>
       </c>
       <c r="D11" s="7">
-        <v>610390</v>
+        <v>271814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
-        <v>931</v>
+        <v>414</v>
       </c>
       <c r="I11" s="7">
-        <v>662247</v>
+        <v>320132</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
-        <v>1550</v>
+        <v>678</v>
       </c>
       <c r="N11" s="7">
-        <v>1272637</v>
+        <v>591947</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,49 +4201,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>514</v>
+        <v>2170</v>
       </c>
       <c r="D13" s="7">
-        <v>455320</v>
+        <v>2056894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
-        <v>866</v>
+        <v>3494</v>
       </c>
       <c r="I13" s="7">
-        <v>548466</v>
+        <v>2303863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
-        <v>1380</v>
+        <v>5664</v>
       </c>
       <c r="N13" s="7">
-        <v>1003786</v>
+        <v>4360757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,49 +4252,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2816</v>
+        <v>1160</v>
       </c>
       <c r="D14" s="7">
-        <v>2889344</v>
+        <v>1287770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
-        <v>4413</v>
+        <v>1785</v>
       </c>
       <c r="I14" s="7">
-        <v>3091921</v>
+        <v>1336524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
-        <v>7229</v>
+        <v>2945</v>
       </c>
       <c r="N14" s="7">
-        <v>5981264</v>
+        <v>2624293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3477A3-AC19-4170-A761-22F53E00C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE274AA-7522-4F1D-B688-1D3647964B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C296B11-52B7-4480-B0FF-D71FCC2D9A2F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{397CBD28-D9B2-413C-A500-3AAD60F4F965}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -746,214 +746,214 @@
     <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
   </si>
   <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>62,43%</t>
   </si>
   <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
   </si>
   <si>
     <t>37,57%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ABAA69-17B9-453F-A8B4-8AF2189DD2F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD3565-F629-4ABE-8E50-D0F23F61F73B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1516,7 +1516,7 @@
         <v>1762</v>
       </c>
       <c r="N4" s="7">
-        <v>1789291</v>
+        <v>1789290</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1618,7 +1618,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1692,7 +1692,7 @@
         <v>574</v>
       </c>
       <c r="D8" s="7">
-        <v>598734</v>
+        <v>598735</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1743,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1981,7 +1981,7 @@
         <v>4499</v>
       </c>
       <c r="N13" s="7">
-        <v>4614578</v>
+        <v>4614577</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2083,7 +2083,7 @@
         <v>6507</v>
       </c>
       <c r="N15" s="7">
-        <v>6650976</v>
+        <v>6650975</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E0354A-1430-4F73-90C5-1B74A6774C60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9193130-EEF3-4214-A7D5-E853BB05CA12}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2252,7 @@
         <v>940</v>
       </c>
       <c r="I4" s="7">
-        <v>1008218</v>
+        <v>1008217</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2354,7 +2354,7 @@
         <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>1328570</v>
+        <v>1328569</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C95A456-5DEE-4727-833C-4097BD747FE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AF9B9C-01A6-4463-867B-8FEB620BEF1B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3173,7 +3173,7 @@
         <v>3130</v>
       </c>
       <c r="N7" s="7">
-        <v>3304353</v>
+        <v>3304352</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>186</v>
@@ -3275,7 +3275,7 @@
         <v>3839</v>
       </c>
       <c r="N9" s="7">
-        <v>4040546</v>
+        <v>4040545</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261D95A-3DBA-4325-B4F6-C206D051054A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D192B9-3357-4E80-92E2-AE1F90523F4B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3739,7 @@
         <v>462</v>
       </c>
       <c r="D4" s="7">
-        <v>357269</v>
+        <v>334615</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>235</v>
@@ -3748,37 +3748,37 @@
         <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>992</v>
       </c>
       <c r="I4" s="7">
-        <v>577222</v>
+        <v>515233</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1454</v>
       </c>
       <c r="N4" s="7">
-        <v>934491</v>
+        <v>849847</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,46 +3790,46 @@
         <v>217</v>
       </c>
       <c r="D5" s="7">
-        <v>175116</v>
+        <v>171602</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
       </c>
       <c r="I5" s="7">
-        <v>240749</v>
+        <v>223769</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>619</v>
       </c>
       <c r="N5" s="7">
-        <v>415865</v>
+        <v>395371</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3841,7 @@
         <v>679</v>
       </c>
       <c r="D6" s="7">
-        <v>532385</v>
+        <v>506217</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3856,7 @@
         <v>1394</v>
       </c>
       <c r="I6" s="7">
-        <v>817971</v>
+        <v>739002</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3871,7 @@
         <v>2073</v>
       </c>
       <c r="N6" s="7">
-        <v>1350356</v>
+        <v>1245218</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,46 +3894,46 @@
         <v>1301</v>
       </c>
       <c r="D7" s="7">
-        <v>1307955</v>
+        <v>1237277</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>1919</v>
       </c>
       <c r="I7" s="7">
-        <v>1336829</v>
+        <v>1205705</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>3220</v>
       </c>
       <c r="N7" s="7">
-        <v>2644785</v>
+        <v>2442983</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,43 +3945,43 @@
         <v>679</v>
       </c>
       <c r="D8" s="7">
-        <v>840840</v>
+        <v>1040090</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>969</v>
       </c>
       <c r="I8" s="7">
-        <v>775643</v>
+        <v>802520</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>1648</v>
       </c>
       <c r="N8" s="7">
-        <v>1616482</v>
+        <v>1842609</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>268</v>
@@ -3996,7 +3996,7 @@
         <v>1980</v>
       </c>
       <c r="D9" s="7">
-        <v>2148795</v>
+        <v>2277367</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +4011,7 @@
         <v>2888</v>
       </c>
       <c r="I9" s="7">
-        <v>2112472</v>
+        <v>2008225</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4026,7 @@
         <v>4868</v>
       </c>
       <c r="N9" s="7">
-        <v>4261267</v>
+        <v>4285592</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,7 +4049,7 @@
         <v>407</v>
       </c>
       <c r="D10" s="7">
-        <v>391670</v>
+        <v>371612</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4064,7 +4064,7 @@
         <v>583</v>
       </c>
       <c r="I10" s="7">
-        <v>389812</v>
+        <v>358446</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4079,7 +4079,7 @@
         <v>990</v>
       </c>
       <c r="N10" s="7">
-        <v>781481</v>
+        <v>730057</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
@@ -4100,7 +4100,7 @@
         <v>264</v>
       </c>
       <c r="D11" s="7">
-        <v>271814</v>
+        <v>266105</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
@@ -4115,7 +4115,7 @@
         <v>414</v>
       </c>
       <c r="I11" s="7">
-        <v>320132</v>
+        <v>298381</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>281</v>
@@ -4130,7 +4130,7 @@
         <v>678</v>
       </c>
       <c r="N11" s="7">
-        <v>591947</v>
+        <v>564486</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>284</v>
@@ -4151,7 +4151,7 @@
         <v>671</v>
       </c>
       <c r="D12" s="7">
-        <v>663484</v>
+        <v>637717</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4166,7 @@
         <v>997</v>
       </c>
       <c r="I12" s="7">
-        <v>709944</v>
+        <v>656827</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4181,7 @@
         <v>1668</v>
       </c>
       <c r="N12" s="7">
-        <v>1373428</v>
+        <v>1294543</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,7 +4204,7 @@
         <v>2170</v>
       </c>
       <c r="D13" s="7">
-        <v>2056894</v>
+        <v>1943503</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>287</v>
@@ -4219,7 +4219,7 @@
         <v>3494</v>
       </c>
       <c r="I13" s="7">
-        <v>2303863</v>
+        <v>2079384</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>290</v>
@@ -4234,7 +4234,7 @@
         <v>5664</v>
       </c>
       <c r="N13" s="7">
-        <v>4360757</v>
+        <v>4022886</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>293</v>
@@ -4255,7 +4255,7 @@
         <v>1160</v>
       </c>
       <c r="D14" s="7">
-        <v>1287770</v>
+        <v>1477797</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>296</v>
@@ -4270,7 +4270,7 @@
         <v>1785</v>
       </c>
       <c r="I14" s="7">
-        <v>1336524</v>
+        <v>1324669</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>299</v>
@@ -4285,7 +4285,7 @@
         <v>2945</v>
       </c>
       <c r="N14" s="7">
-        <v>2624293</v>
+        <v>2802467</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>302</v>
@@ -4306,7 +4306,7 @@
         <v>3330</v>
       </c>
       <c r="D15" s="7">
-        <v>3344664</v>
+        <v>3421300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4321,7 @@
         <v>5279</v>
       </c>
       <c r="I15" s="7">
-        <v>3640387</v>
+        <v>3404053</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4336,7 @@
         <v>8609</v>
       </c>
       <c r="N15" s="7">
-        <v>6985050</v>
+        <v>6825353</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
